--- a/Excel/employees.xlsx
+++ b/Excel/employees.xlsx
@@ -471,7 +471,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Employee 1</t>
+          <t>michel</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -479,15 +479,15 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Developer</t>
+          <t>Founder and Principal Consultant</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>111824</v>
+        <v>69298</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>employee1@company.com</t>
+          <t>michel@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -509,11 +509,11 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>76805</v>
+        <v>102895</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>employee2@company.com</t>
+          <t>employee2@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -527,19 +527,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>Analyst</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>65448</v>
+        <v>71506</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>employee3@company.com</t>
+          <t>employee3@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -561,11 +561,11 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>46545</v>
+        <v>103243</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>employee4@company.com</t>
+          <t>employee4@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -579,19 +579,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Designer</t>
+          <t>Analyst</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>90061</v>
+        <v>98669</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>employee5@company.com</t>
+          <t>employee5@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -605,19 +605,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Analyst</t>
+          <t>Developer</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>98792</v>
+        <v>93987</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>employee6@company.com</t>
+          <t>employee6@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -631,19 +631,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Designer</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>112421</v>
+        <v>92495</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>employee7@company.com</t>
+          <t>employee7@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -657,19 +657,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Manager</t>
+          <t>Developer</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>59022</v>
+        <v>35483</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>employee8@company.com</t>
+          <t>employee8@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -683,19 +683,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Manager</t>
+          <t>Designer</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>79209</v>
+        <v>49985</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>employee9@company.com</t>
+          <t>employee9@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -709,19 +709,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Designer</t>
+          <t>Manager</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>66941</v>
+        <v>46622</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>employee10@company.com</t>
+          <t>employee10@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -735,19 +735,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Analyst</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>110703</v>
+        <v>43922</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>employee11@company.com</t>
+          <t>employee11@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -769,11 +769,11 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>38505</v>
+        <v>117667</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>employee12@company.com</t>
+          <t>employee12@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -787,19 +787,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Analyst</t>
+          <t>Developer</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>102747</v>
+        <v>70885</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>employee13@company.com</t>
+          <t>employee13@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -813,19 +813,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Designer</t>
+          <t>Developer</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>107557</v>
+        <v>75671</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>employee14@company.com</t>
+          <t>employee14@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -839,19 +839,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Designer</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>61034</v>
+        <v>65504</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>employee15@company.com</t>
+          <t>employee15@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -865,19 +865,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Designer</t>
+          <t>Developer</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>51884</v>
+        <v>90074</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>employee16@company.com</t>
+          <t>employee16@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -899,11 +899,11 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>98274</v>
+        <v>34999</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>employee17@company.com</t>
+          <t>employee17@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -917,19 +917,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Developer</t>
+          <t>Manager</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>118176</v>
+        <v>101635</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>employee18@company.com</t>
+          <t>employee18@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -943,7 +943,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>83730</v>
+        <v>97257</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>employee19@company.com</t>
+          <t>employee19@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -969,19 +969,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Designer</t>
+          <t>Analyst</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>99525</v>
+        <v>117902</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>employee20@company.com</t>
+          <t>employee20@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -995,19 +995,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Developer</t>
+          <t>Designer</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>95082</v>
+        <v>47696</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>employee21@company.com</t>
+          <t>employee21@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -1021,19 +1021,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Analyst</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>48110</v>
+        <v>58037</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>employee22@company.com</t>
+          <t>employee22@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -1047,19 +1047,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Analyst</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>110554</v>
+        <v>59995</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>employee23@company.com</t>
+          <t>employee23@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -1073,19 +1073,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Manager</t>
+          <t>Designer</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>110629</v>
+        <v>78607</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>employee24@company.com</t>
+          <t>employee24@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -1099,19 +1099,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>Developer</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>91199</v>
+        <v>72906</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>employee25@company.com</t>
+          <t>employee25@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -1125,19 +1125,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Analyst</t>
+          <t>Designer</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>109590</v>
+        <v>37693</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>employee26@company.com</t>
+          <t>employee26@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -1151,19 +1151,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Analyst</t>
+          <t>Developer</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>73991</v>
+        <v>106949</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>employee27@company.com</t>
+          <t>employee27@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -1177,19 +1177,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Designer</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>38393</v>
+        <v>39952</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>employee28@company.com</t>
+          <t>employee28@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -1203,7 +1203,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1211,11 +1211,11 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>56865</v>
+        <v>49210</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>employee29@company.com</t>
+          <t>employee29@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -1229,19 +1229,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>Designer</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>111107</v>
+        <v>96770</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>employee30@company.com</t>
+          <t>employee30@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -1255,19 +1255,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Manager</t>
+          <t>Analyst</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>71507</v>
+        <v>106548</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>employee31@company.com</t>
+          <t>employee31@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -1281,19 +1281,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Analyst</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>61985</v>
+        <v>104534</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>employee32@company.com</t>
+          <t>employee32@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -1307,7 +1307,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1315,11 +1315,11 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>46712</v>
+        <v>99959</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>employee33@company.com</t>
+          <t>employee33@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -1333,19 +1333,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>Manager</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>110657</v>
+        <v>111964</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>employee34@company.com</t>
+          <t>employee34@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -1363,15 +1363,15 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Manager</t>
+          <t>Developer</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>110923</v>
+        <v>74453</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>employee35@company.com</t>
+          <t>employee35@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -1385,19 +1385,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Manager</t>
+          <t>Developer</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>77353</v>
+        <v>58091</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>employee36@company.com</t>
+          <t>employee36@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -1411,19 +1411,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Developer</t>
+          <t>Manager</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>87573</v>
+        <v>88792</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>employee37@company.com</t>
+          <t>employee37@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -1441,15 +1441,15 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Analyst</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>92028</v>
+        <v>86097</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>employee38@company.com</t>
+          <t>employee38@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -1463,19 +1463,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>Analyst</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>109008</v>
+        <v>85493</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>employee39@company.com</t>
+          <t>employee39@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -1489,7 +1489,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1497,11 +1497,11 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>96109</v>
+        <v>34558</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>employee40@company.com</t>
+          <t>employee40@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -1515,7 +1515,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1523,11 +1523,11 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>30912</v>
+        <v>40481</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>employee41@company.com</t>
+          <t>employee41@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -1541,19 +1541,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Designer</t>
+          <t>Analyst</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>37838</v>
+        <v>112812</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>employee42@company.com</t>
+          <t>employee42@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -1567,19 +1567,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Designer</t>
+          <t>Analyst</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>100362</v>
+        <v>87933</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>employee43@company.com</t>
+          <t>employee43@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -1593,19 +1593,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Manager</t>
+          <t>Developer</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>70923</v>
+        <v>43057</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>employee44@company.com</t>
+          <t>employee44@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1627,11 +1627,11 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>81662</v>
+        <v>100761</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>employee45@company.com</t>
+          <t>employee45@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -1645,19 +1645,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Manager</t>
+          <t>Developer</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>31511</v>
+        <v>86284</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>employee46@company.com</t>
+          <t>employee46@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -1671,19 +1671,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Analyst</t>
+          <t>Designer</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>78250</v>
+        <v>112455</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>employee47@company.com</t>
+          <t>employee47@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -1697,7 +1697,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1705,11 +1705,11 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>95625</v>
+        <v>59963</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>employee48@company.com</t>
+          <t>employee48@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -1723,19 +1723,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Manager</t>
+          <t>Developer</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>57366</v>
+        <v>95767</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>employee49@company.com</t>
+          <t>employee49@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -1749,19 +1749,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Manager</t>
+          <t>Designer</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>81632</v>
+        <v>50032</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>employee50@company.com</t>
+          <t>employee50@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -1775,19 +1775,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Designer</t>
+          <t>Developer</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>70751</v>
+        <v>59201</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>employee51@company.com</t>
+          <t>employee51@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -1801,19 +1801,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Manager</t>
+          <t>Designer</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>43388</v>
+        <v>59440</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>employee52@company.com</t>
+          <t>employee52@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -1827,19 +1827,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Designer</t>
+          <t>Manager</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>116066</v>
+        <v>65275</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>employee53@company.com</t>
+          <t>employee53@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -1853,19 +1853,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Developer</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>79739</v>
+        <v>46702</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>employee54@company.com</t>
+          <t>employee54@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -1879,19 +1879,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Manager</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>57962</v>
+        <v>110008</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>employee55@company.com</t>
+          <t>employee55@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -1905,19 +1905,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Developer</t>
+          <t>Designer</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>96470</v>
+        <v>78815</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>employee56@company.com</t>
+          <t>employee56@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -1931,19 +1931,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Developer</t>
+          <t>Manager</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>97207</v>
+        <v>54337</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>employee57@company.com</t>
+          <t>employee57@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -1957,19 +1957,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Analyst</t>
+          <t>Designer</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>35879</v>
+        <v>32780</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>employee58@company.com</t>
+          <t>employee58@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -1983,7 +1983,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1991,11 +1991,11 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>102718</v>
+        <v>75576</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>employee59@company.com</t>
+          <t>employee59@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -2009,19 +2009,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Analyst</t>
+          <t>Designer</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>113069</v>
+        <v>72440</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>employee60@company.com</t>
+          <t>employee60@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -2043,11 +2043,11 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>58187</v>
+        <v>31896</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>employee61@company.com</t>
+          <t>employee61@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -2061,19 +2061,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Manager</t>
+          <t>Designer</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>98785</v>
+        <v>52648</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>employee62@company.com</t>
+          <t>employee62@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -2095,11 +2095,11 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>56084</v>
+        <v>106031</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>employee63@company.com</t>
+          <t>employee63@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -2113,19 +2113,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Developer</t>
+          <t>Designer</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>60699</v>
+        <v>30943</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>employee64@company.com</t>
+          <t>employee64@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -2139,19 +2139,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>Designer</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>71503</v>
+        <v>98333</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>employee65@company.com</t>
+          <t>employee65@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -2165,19 +2165,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Developer</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>87879</v>
+        <v>111482</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>employee66@company.com</t>
+          <t>employee66@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -2191,19 +2191,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Developer</t>
+          <t>Manager</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>92208</v>
+        <v>112132</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>employee67@company.com</t>
+          <t>employee67@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -2217,19 +2217,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Analyst</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>101803</v>
+        <v>94758</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>employee68@company.com</t>
+          <t>employee68@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -2243,19 +2243,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Designer</t>
+          <t>Analyst</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>108404</v>
+        <v>38959</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>employee69@company.com</t>
+          <t>employee69@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -2269,19 +2269,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Designer</t>
+          <t>Developer</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>72537</v>
+        <v>97107</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>employee70@company.com</t>
+          <t>employee70@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -2295,7 +2295,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -2303,11 +2303,11 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>58960</v>
+        <v>83340</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>employee71@company.com</t>
+          <t>employee71@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -2321,19 +2321,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Analyst</t>
+          <t>Designer</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>112265</v>
+        <v>80307</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>employee72@company.com</t>
+          <t>employee72@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -2347,19 +2347,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Developer</t>
+          <t>Designer</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>99405</v>
+        <v>36727</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>employee73@company.com</t>
+          <t>employee73@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -2381,11 +2381,11 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>36162</v>
+        <v>45085</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>employee74@company.com</t>
+          <t>employee74@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -2399,19 +2399,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Analyst</t>
+          <t>Manager</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>60749</v>
+        <v>82181</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>employee75@company.com</t>
+          <t>employee75@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -2425,19 +2425,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Developer</t>
+          <t>Manager</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>67270</v>
+        <v>71753</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>employee76@company.com</t>
+          <t>employee76@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -2451,7 +2451,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -2459,11 +2459,11 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>69916</v>
+        <v>82667</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>employee77@company.com</t>
+          <t>employee77@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -2477,19 +2477,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Analyst</t>
+          <t>Developer</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>84924</v>
+        <v>85678</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>employee78@company.com</t>
+          <t>employee78@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -2503,19 +2503,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Designer</t>
+          <t>Developer</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>54743</v>
+        <v>102089</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>employee79@company.com</t>
+          <t>employee79@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -2537,11 +2537,11 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>63564</v>
+        <v>79582</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>employee80@company.com</t>
+          <t>employee80@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -2555,19 +2555,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Analyst</t>
+          <t>Manager</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>97048</v>
+        <v>47177</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>employee81@company.com</t>
+          <t>employee81@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -2581,19 +2581,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>Analyst</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>64819</v>
+        <v>49932</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>employee82@company.com</t>
+          <t>employee82@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -2607,7 +2607,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -2615,11 +2615,11 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>46469</v>
+        <v>42830</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>employee83@company.com</t>
+          <t>employee83@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -2633,19 +2633,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Analyst</t>
+          <t>Developer</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>71706</v>
+        <v>82481</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>employee84@company.com</t>
+          <t>employee84@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -2659,19 +2659,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Designer</t>
+          <t>Analyst</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>35777</v>
+        <v>80396</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>employee85@company.com</t>
+          <t>employee85@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -2689,15 +2689,15 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Manager</t>
+          <t>Analyst</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>65791</v>
+        <v>117640</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>employee86@company.com</t>
+          <t>employee86@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -2711,19 +2711,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>Manager</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>108122</v>
+        <v>79256</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>employee87@company.com</t>
+          <t>employee87@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -2737,19 +2737,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Designer</t>
+          <t>Analyst</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>97472</v>
+        <v>96813</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>employee88@company.com</t>
+          <t>employee88@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -2763,7 +2763,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2771,11 +2771,11 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>31050</v>
+        <v>103238</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>employee89@company.com</t>
+          <t>employee89@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -2789,19 +2789,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Designer</t>
+          <t>Developer</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>94775</v>
+        <v>90505</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>employee90@company.com</t>
+          <t>employee90@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -2815,19 +2815,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Manager</t>
+          <t>Analyst</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>80157</v>
+        <v>94165</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>employee91@company.com</t>
+          <t>employee91@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -2841,19 +2841,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Analyst</t>
+          <t>Manager</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>103866</v>
+        <v>109746</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>employee92@company.com</t>
+          <t>employee92@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -2867,7 +2867,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2875,11 +2875,11 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>70123</v>
+        <v>116605</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>employee93@company.com</t>
+          <t>employee93@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -2893,19 +2893,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Designer</t>
+          <t>Manager</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>98534</v>
+        <v>92971</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>employee94@company.com</t>
+          <t>employee94@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -2919,19 +2919,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Developer</t>
+          <t>Manager</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>33633</v>
+        <v>33331</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>employee95@company.com</t>
+          <t>employee95@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -2945,19 +2945,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Developer</t>
+          <t>Designer</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>41439</v>
+        <v>63217</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>employee96@company.com</t>
+          <t>employee96@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -2971,19 +2971,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Analyst</t>
+          <t>Designer</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>103797</v>
+        <v>103040</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>employee97@company.com</t>
+          <t>employee97@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -2997,19 +2997,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Manager</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>75816</v>
+        <v>67819</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>employee98@company.com</t>
+          <t>employee98@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -3023,19 +3023,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Analyst</t>
+          <t>Manager</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>31098</v>
+        <v>105896</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>employee99@company.com</t>
+          <t>employee99@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
@@ -3049,19 +3049,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Designer</t>
+          <t>Manager</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>33035</v>
+        <v>37062</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>employee100@company.com</t>
+          <t>employee100@dmnsolutions.com.au</t>
         </is>
       </c>
     </row>
